--- a/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15E_R-Provincia-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.4994552438654813</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.754052039912557</v>
+        <v>0.7540520399125569</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.6796218175819095</v>
+        <v>0.6796218175819096</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1312436222975505</v>
+        <v>0.2401867018479052</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5483873438827518</v>
+        <v>0.539405295411055</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5010843074269475</v>
+        <v>0.5222417161624372</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.875796230667571</v>
+        <v>0.8732386103981208</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8927175448881794</v>
+        <v>0.8948278929566439</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8217400825692927</v>
+        <v>0.8340800818403727</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.5133249325835619</v>
+        <v>0.513324932583562</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8725392062624729</v>
+        <v>0.8725392062624731</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7680801847438888</v>
+        <v>0.7680801847438891</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1660869879606271</v>
+        <v>0.1663835801725359</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7012254137099165</v>
+        <v>0.6829301374693763</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5768966229847748</v>
+        <v>0.5721285799611031</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8433927537776407</v>
+        <v>0.8435832973355474</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9622461431852759</v>
+        <v>0.9615450841613743</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9126277219059709</v>
+        <v>0.9095431209370738</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6514460018739109</v>
+        <v>0.6514460018739108</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.4344603819838717</v>
+        <v>0.4344603819838714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5250948610903714</v>
+        <v>0.5250948610903713</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3526495060375404</v>
+        <v>0.3580642952619563</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2355064047438913</v>
+        <v>0.2401454615598346</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3725752993449189</v>
+        <v>0.3443515909652625</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8641420992670411</v>
+        <v>0.8664528001295624</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6523815274016579</v>
+        <v>0.6570715065496824</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6868958226452</v>
+        <v>0.6763972244321858</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7260713605446683</v>
+        <v>0.7260713605446684</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.8287396418472509</v>
@@ -747,10 +747,10 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.4333187992622895</v>
+        <v>0.3662924399558866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5990425307820574</v>
+        <v>0.6170194514901842</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +762,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.9141482018255552</v>
+        <v>0.9154283437449926</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9509814259404318</v>
+        <v>0.9525977809816334</v>
       </c>
     </row>
     <row r="16">
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8206268520074008</v>
+        <v>0.8206268520074009</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.7349657109756998</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7604091883759373</v>
+        <v>0.7604091883759372</v>
       </c>
     </row>
     <row r="20">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6041611063629079</v>
+        <v>0.5700375560011932</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5822386094827736</v>
+        <v>0.5988883257491507</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6391646984149274</v>
+        <v>0.6327182925630429</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1</v>
+        <v>0.9485292964538062</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8434587955845534</v>
+        <v>0.850502253557419</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.859806809448775</v>
+        <v>0.8573727444187027</v>
       </c>
     </row>
     <row r="22">
@@ -884,7 +884,7 @@
         <v>0.7806202421101134</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7055336520229772</v>
+        <v>0.7055336520229774</v>
       </c>
     </row>
     <row r="23">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1315776501266189</v>
+        <v>0.1328013096959005</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6119248345355227</v>
+        <v>0.6090420355655256</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5511402373011325</v>
+        <v>0.5350979270575974</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.869046094823443</v>
+        <v>0.8732775050091056</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9054027476204196</v>
+        <v>0.9065232127856706</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8448549243282607</v>
+        <v>0.8363178262947457</v>
       </c>
     </row>
     <row r="25">
@@ -936,7 +936,7 @@
         <v>0.5032837328412708</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.679434126076956</v>
+        <v>0.6794341260769559</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.6533289557958533</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3588618630905314</v>
+        <v>0.3598265136918423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3734263276361532</v>
+        <v>0.3792508509326568</v>
       </c>
     </row>
     <row r="27">
@@ -970,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.920156619382531</v>
+        <v>0.9203280858766715</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.863530785350484</v>
+        <v>0.8705794525503788</v>
       </c>
     </row>
     <row r="28">
@@ -991,10 +991,10 @@
         <v>0.6401745472237639</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.7292012165671371</v>
+        <v>0.7292012165671372</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.702513263600106</v>
+        <v>0.7025132636001061</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4828359200218616</v>
+        <v>0.504242052078869</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6558374810420674</v>
+        <v>0.6591992303814431</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.6389084942220862</v>
+        <v>0.6412783470582182</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7518346003207015</v>
+        <v>0.7634351258886519</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.7902907998026882</v>
+        <v>0.7924149587477185</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7620444482468249</v>
+        <v>0.7643902439353749</v>
       </c>
     </row>
     <row r="31">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>753</v>
+        <v>1378</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7617</v>
+        <v>7492</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9835</v>
+        <v>10250</v>
       </c>
     </row>
     <row r="7">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5025</v>
+        <v>5011</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12399</v>
+        <v>12428</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16128</v>
+        <v>16370</v>
       </c>
     </row>
     <row r="8">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9734</v>
+        <v>9480</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11292</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="11">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4801</v>
+        <v>4802</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13357</v>
+        <v>13347</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17863</v>
+        <v>17802</v>
       </c>
     </row>
     <row r="12">
@@ -1318,13 +1318,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2805</v>
+        <v>2848</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2611</v>
+        <v>2662</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7094</v>
+        <v>6557</v>
       </c>
     </row>
     <row r="15">
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6873</v>
+        <v>6891</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7233</v>
+        <v>7285</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13079</v>
+        <v>12879</v>
       </c>
     </row>
     <row r="16">
@@ -1391,10 +1391,10 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>2103</v>
+        <v>1778</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4650</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="19">
@@ -1406,10 +1406,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>4436</v>
+        <v>4443</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7382</v>
+        <v>7395</v>
       </c>
     </row>
     <row r="20">
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4052</v>
+        <v>3823</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>9242</v>
+        <v>9507</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>14433</v>
+        <v>14287</v>
       </c>
     </row>
     <row r="27">
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6707</v>
+        <v>6362</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13389</v>
+        <v>13501</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>19415</v>
+        <v>19360</v>
       </c>
     </row>
     <row r="28">
@@ -1590,13 +1590,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>13016</v>
+        <v>12955</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>15162</v>
+        <v>14721</v>
       </c>
     </row>
     <row r="31">
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5423</v>
+        <v>5449</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>19259</v>
+        <v>19283</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>23243</v>
+        <v>23008</v>
       </c>
     </row>
     <row r="32">
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2735</v>
+        <v>2743</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3342</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="35">
@@ -1682,10 +1682,10 @@
         <v>1326</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>7013</v>
+        <v>7015</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>7728</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="36">
@@ -1734,13 +1734,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>18398</v>
+        <v>19214</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>58372</v>
+        <v>58671</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>81210</v>
+        <v>81512</v>
       </c>
     </row>
     <row r="39">
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>28648</v>
+        <v>29090</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>70339</v>
+        <v>70528</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>96862</v>
+        <v>97160</v>
       </c>
     </row>
     <row r="40">
